--- a/natmiOut/OldD0/LR-pairs_lrc2p/Crlf1-Cntfr.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Crlf1-Cntfr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>FAPs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +519,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -528,49 +531,49 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>17.1002688424231</v>
+        <v>0.082925</v>
       </c>
       <c r="H2">
-        <v>17.1002688424231</v>
+        <v>0.248775</v>
       </c>
       <c r="I2">
-        <v>0.6508301410351017</v>
+        <v>0.003066867285585202</v>
       </c>
       <c r="J2">
-        <v>0.6508301410351017</v>
+        <v>0.003066867285585203</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>12.9060615861212</v>
+        <v>0.02507166666666667</v>
       </c>
       <c r="N2">
-        <v>12.9060615861212</v>
+        <v>0.075215</v>
       </c>
       <c r="O2">
-        <v>0.8107704175685406</v>
+        <v>0.001520672841173258</v>
       </c>
       <c r="P2">
-        <v>0.8107704175685406</v>
+        <v>0.001520672841173258</v>
       </c>
       <c r="Q2">
-        <v>220.697122819542</v>
+        <v>0.002079067958333334</v>
       </c>
       <c r="R2">
-        <v>220.697122819542</v>
+        <v>0.018711611625</v>
       </c>
       <c r="S2">
-        <v>0.5276738252132216</v>
+        <v>4.663701788672166E-06</v>
       </c>
       <c r="T2">
-        <v>0.5276738252132216</v>
+        <v>4.663701788672168E-06</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -590,111 +593,111 @@
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>17.1002688424231</v>
+        <v>0.082925</v>
       </c>
       <c r="H3">
-        <v>17.1002688424231</v>
+        <v>0.248775</v>
       </c>
       <c r="I3">
-        <v>0.6508301410351017</v>
+        <v>0.003066867285585202</v>
       </c>
       <c r="J3">
-        <v>0.6508301410351017</v>
+        <v>0.003066867285585203</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.01220739170587</v>
+        <v>13.42247233333333</v>
       </c>
       <c r="N3">
-        <v>3.01220739170587</v>
+        <v>40.267417</v>
       </c>
       <c r="O3">
-        <v>0.1892295824314594</v>
+        <v>0.8141137727328104</v>
       </c>
       <c r="P3">
-        <v>0.1892295824314594</v>
+        <v>0.8141137727328106</v>
       </c>
       <c r="Q3">
-        <v>51.50955620730445</v>
+        <v>1.113058518241667</v>
       </c>
       <c r="R3">
-        <v>51.50955620730445</v>
+        <v>10.017526664175</v>
       </c>
       <c r="S3">
-        <v>0.1231563158218801</v>
+        <v>0.002496778896338603</v>
       </c>
       <c r="T3">
-        <v>0.1231563158218801</v>
+        <v>0.002496778896338603</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>9.17428078926155</v>
+        <v>0.082925</v>
       </c>
       <c r="H4">
-        <v>9.17428078926155</v>
+        <v>0.248775</v>
       </c>
       <c r="I4">
-        <v>0.3491698589648983</v>
+        <v>0.003066867285585202</v>
       </c>
       <c r="J4">
-        <v>0.3491698589648983</v>
+        <v>0.003066867285585203</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.9060615861212</v>
+        <v>3.039675333333333</v>
       </c>
       <c r="N4">
-        <v>12.9060615861212</v>
+        <v>9.119026</v>
       </c>
       <c r="O4">
-        <v>0.8107704175685406</v>
+        <v>0.1843655544260162</v>
       </c>
       <c r="P4">
-        <v>0.8107704175685406</v>
+        <v>0.1843655544260162</v>
       </c>
       <c r="Q4">
-        <v>118.4038328745782</v>
+        <v>0.2520650770166666</v>
       </c>
       <c r="R4">
-        <v>118.4038328745782</v>
+        <v>2.26858569315</v>
       </c>
       <c r="S4">
-        <v>0.283096592355319</v>
+        <v>0.0005654246874579271</v>
       </c>
       <c r="T4">
-        <v>0.283096592355319</v>
+        <v>0.0005654246874579273</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -702,61 +705,371 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>17.662076</v>
+      </c>
+      <c r="H5">
+        <v>52.986228</v>
+      </c>
+      <c r="I5">
+        <v>0.653207634367435</v>
+      </c>
+      <c r="J5">
+        <v>0.653207634367435</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M5">
+        <v>0.02507166666666667</v>
+      </c>
+      <c r="N5">
+        <v>0.075215</v>
+      </c>
+      <c r="O5">
+        <v>0.001520672841173258</v>
+      </c>
+      <c r="P5">
+        <v>0.001520672841173258</v>
+      </c>
+      <c r="Q5">
+        <v>0.4428176821133333</v>
+      </c>
+      <c r="R5">
+        <v>3.98535913902</v>
+      </c>
+      <c r="S5">
+        <v>0.00099331510922959</v>
+      </c>
+      <c r="T5">
+        <v>0.00099331510922959</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>17.662076</v>
+      </c>
+      <c r="H6">
+        <v>52.986228</v>
+      </c>
+      <c r="I6">
+        <v>0.653207634367435</v>
+      </c>
+      <c r="J6">
+        <v>0.653207634367435</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>13.42247233333333</v>
+      </c>
+      <c r="N6">
+        <v>40.267417</v>
+      </c>
+      <c r="O6">
+        <v>0.8141137727328104</v>
+      </c>
+      <c r="P6">
+        <v>0.8141137727328106</v>
+      </c>
+      <c r="Q6">
+        <v>237.0687264592306</v>
+      </c>
+      <c r="R6">
+        <v>2133.618538133076</v>
+      </c>
+      <c r="S6">
+        <v>0.5317853315927467</v>
+      </c>
+      <c r="T6">
+        <v>0.5317853315927469</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>17.662076</v>
+      </c>
+      <c r="H7">
+        <v>52.986228</v>
+      </c>
+      <c r="I7">
+        <v>0.653207634367435</v>
+      </c>
+      <c r="J7">
+        <v>0.653207634367435</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>3.039675333333333</v>
+      </c>
+      <c r="N7">
+        <v>9.119026</v>
+      </c>
+      <c r="O7">
+        <v>0.1843655544260162</v>
+      </c>
+      <c r="P7">
+        <v>0.1843655544260162</v>
+      </c>
+      <c r="Q7">
+        <v>53.68697675265867</v>
+      </c>
+      <c r="R7">
+        <v>483.182790773928</v>
+      </c>
+      <c r="S7">
+        <v>0.1204289876654586</v>
+      </c>
+      <c r="T7">
+        <v>0.1204289876654586</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>9.293991</v>
+      </c>
+      <c r="H8">
+        <v>27.881973</v>
+      </c>
+      <c r="I8">
+        <v>0.3437254983469798</v>
+      </c>
+      <c r="J8">
+        <v>0.3437254983469798</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.02507166666666667</v>
+      </c>
+      <c r="N8">
+        <v>0.075215</v>
+      </c>
+      <c r="O8">
+        <v>0.001520672841173258</v>
+      </c>
+      <c r="P8">
+        <v>0.001520672841173258</v>
+      </c>
+      <c r="Q8">
+        <v>0.233015844355</v>
+      </c>
+      <c r="R8">
+        <v>2.097142599195</v>
+      </c>
+      <c r="S8">
+        <v>0.0005226940301549957</v>
+      </c>
+      <c r="T8">
+        <v>0.0005226940301549958</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>9.17428078926155</v>
-      </c>
-      <c r="H5">
-        <v>9.17428078926155</v>
-      </c>
-      <c r="I5">
-        <v>0.3491698589648983</v>
-      </c>
-      <c r="J5">
-        <v>0.3491698589648983</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>3.01220739170587</v>
-      </c>
-      <c r="N5">
-        <v>3.01220739170587</v>
-      </c>
-      <c r="O5">
-        <v>0.1892295824314594</v>
-      </c>
-      <c r="P5">
-        <v>0.1892295824314594</v>
-      </c>
-      <c r="Q5">
-        <v>27.6348364069988</v>
-      </c>
-      <c r="R5">
-        <v>27.6348364069988</v>
-      </c>
-      <c r="S5">
-        <v>0.06607326660957927</v>
-      </c>
-      <c r="T5">
-        <v>0.06607326660957927</v>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>9.293991</v>
+      </c>
+      <c r="H9">
+        <v>27.881973</v>
+      </c>
+      <c r="I9">
+        <v>0.3437254983469798</v>
+      </c>
+      <c r="J9">
+        <v>0.3437254983469798</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>13.42247233333333</v>
+      </c>
+      <c r="N9">
+        <v>40.267417</v>
+      </c>
+      <c r="O9">
+        <v>0.8141137727328104</v>
+      </c>
+      <c r="P9">
+        <v>0.8141137727328106</v>
+      </c>
+      <c r="Q9">
+        <v>124.748337063749</v>
+      </c>
+      <c r="R9">
+        <v>1122.735033573741</v>
+      </c>
+      <c r="S9">
+        <v>0.2798316622437251</v>
+      </c>
+      <c r="T9">
+        <v>0.2798316622437252</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>9.293991</v>
+      </c>
+      <c r="H10">
+        <v>27.881973</v>
+      </c>
+      <c r="I10">
+        <v>0.3437254983469798</v>
+      </c>
+      <c r="J10">
+        <v>0.3437254983469798</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.039675333333333</v>
+      </c>
+      <c r="N10">
+        <v>9.119026</v>
+      </c>
+      <c r="O10">
+        <v>0.1843655544260162</v>
+      </c>
+      <c r="P10">
+        <v>0.1843655544260162</v>
+      </c>
+      <c r="Q10">
+        <v>28.250715190922</v>
+      </c>
+      <c r="R10">
+        <v>254.256436718298</v>
+      </c>
+      <c r="S10">
+        <v>0.06337114207309964</v>
+      </c>
+      <c r="T10">
+        <v>0.06337114207309964</v>
       </c>
     </row>
   </sheetData>
